--- a/第四次模拟/数据预处理/2022_january.xlsx
+++ b/第四次模拟/数据预处理/2022_january.xlsx
@@ -1,101 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>2022年度1月份消费表</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>food</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>clothes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vehicle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sports</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>loans</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>other</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年度1月份消费表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="m\-d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="22"/>
+      <color rgb="FFffffff"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFffffff"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF203764"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -107,18 +83,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8497B0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF8497b0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE4"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFd6dce4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,16 +102,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFBFBFBF"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFBFBFBF"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFBFBFBF"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFbfbfbf"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFbfbfbf"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFbfbfbf"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFbfbfbf"/>
       </bottom>
       <diagonal/>
     </border>
@@ -145,56 +134,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -221,82 +227,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -308,905 +314,1032 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I36"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="3.875" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="5" customWidth="1"/>
-    <col min="4" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="12" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="3.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="C3" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="27">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="5" spans="3:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C6" s="6">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="27">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8">
         <v>44562</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>804</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>2088</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>1843</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <v>1344</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>208</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>1099</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C7" s="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="27">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="10">
         <v>44563</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="11">
         <v>1390</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <v>2781</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <v>1656</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="11">
         <v>59</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <v>2886</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="11">
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C8" s="6">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="27">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="8">
         <v>44564</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>1291</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>2816</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>1276</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>2673</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>1775</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="9">
         <v>1913</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C9" s="7">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="27">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="10">
         <v>44565</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
         <v>629</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="11">
         <v>1093</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="11">
         <v>1667</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="11">
         <v>2533</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="11">
         <v>1765</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="11">
         <v>1527</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C10" s="6">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="27">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
         <v>44566</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>1151</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>2476</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>1816</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>2942</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>2008</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>2881</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="7">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="27">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="10">
         <v>44567</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="11">
         <v>1586</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="11">
         <v>2399</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="11">
         <v>1132</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="11">
         <v>767</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="11">
         <v>1796</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="11">
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="6">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="27">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="8">
         <v>44568</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>380</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="9">
         <v>140</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <v>532</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>2581</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>801</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="9">
         <v>1731</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C13" s="7">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="27">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="10">
         <v>44569</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="11">
         <v>100</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="11">
         <v>2023</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="11">
         <v>1367</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="11">
         <v>1339</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="11">
         <v>562</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="11">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C14" s="6">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="27">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
         <v>44570</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>681</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="9">
         <v>1438</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="9">
         <v>577</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="9">
         <v>1967</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="9">
         <v>2608</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="9">
         <v>2130</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C15" s="7">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="27">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="10">
         <v>44571</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="11">
         <v>96</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="11">
         <v>1319</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="11">
         <v>1530</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="11">
         <v>542</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="11">
         <v>1964</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="11">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C16" s="6">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="27">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8">
         <v>44572</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="9">
         <v>2078</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="9">
         <v>2372</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="9">
         <v>233</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="9">
         <v>1855</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="9">
         <v>2481</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="9">
         <v>1663</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C17" s="7">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="27">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="10">
         <v>44573</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="11">
         <v>1963</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="11">
         <v>1672</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="11">
         <v>2530</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="11">
         <v>906</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="11">
         <v>1228</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="11">
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C18" s="6">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="27">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="8">
         <v>44574</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="9">
         <v>832</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="9">
         <v>509</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="9">
         <v>1640</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="9">
         <v>2918</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="9">
         <v>749</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="9">
         <v>2164</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="7">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="27">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="10">
         <v>44575</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="11">
         <v>157</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="11">
         <v>452</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="11">
         <v>2081</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="11">
         <v>2175</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="11">
         <v>367</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="11">
         <v>1334</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C20" s="6">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="27">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8">
         <v>44576</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>1051</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>1631</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="9">
         <v>1179</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="9">
         <v>1178</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="9">
         <v>2472</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>1210</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C21" s="7">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="27">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="10">
         <v>44577</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="11">
         <v>2832</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="11">
         <v>2393</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="11">
         <v>687</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="11">
         <v>427</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="11">
         <v>2239</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="11">
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C22" s="6">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="27">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8">
         <v>44578</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="9">
         <v>1792</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="9">
         <v>1884</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="9">
         <v>1692</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="9">
         <v>1960</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>260</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="9">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C23" s="7">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="27">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="10">
         <v>44579</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="11">
         <v>419</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="11">
         <v>2132</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="11">
         <v>1152</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="11">
         <v>1201</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="11">
         <v>2896</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="11">
         <v>2917</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C24" s="6">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="27">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="8">
         <v>44580</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="9">
         <v>2489</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="9">
         <v>2853</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="9">
         <v>1105</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="9">
         <v>2376</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="9">
         <v>1587</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="9">
         <v>2860</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="7">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="27">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="10">
         <v>44581</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="11">
         <v>1306</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="11">
         <v>2456</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="11">
         <v>1136</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="11">
         <v>344</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="11">
         <v>2057</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="11">
         <v>2398</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="6">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="27">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8">
         <v>44582</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="9">
         <v>1645</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="9">
         <v>2653</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="9">
         <v>1848</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="9">
         <v>790</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="9">
         <v>1081</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="9">
         <v>787</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="7">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="10">
         <v>44583</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="11">
         <v>2469</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="11">
         <v>1168</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="11">
         <v>382</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="11">
         <v>1095</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="11">
         <v>2595</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="11">
         <v>1429</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C28" s="6">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="8">
         <v>44584</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="9">
         <v>1652</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="9">
         <v>876</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="9">
         <v>1078</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="9">
         <v>1664</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="9">
         <v>1343</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="9">
         <v>1588</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="7">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="10">
         <v>44585</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="11">
         <v>1038</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="11">
         <v>2696</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="11">
         <v>1447</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="11">
         <v>1797</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="11">
         <v>2735</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="11">
         <v>2248</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C30" s="6">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8">
         <v>44586</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="9">
         <v>277</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="9">
         <v>1625</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="9">
         <v>1395</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="9">
         <v>2084</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="9">
         <v>420</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="9">
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C31" s="7">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="10">
         <v>44587</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="11">
         <v>2354</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="11">
         <v>568</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="11">
         <v>2930</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="11">
         <v>2009</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="11">
         <v>1375</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="11">
         <v>2402</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C32" s="6">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="8">
         <v>44588</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="9">
         <v>2417</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="9">
         <v>951</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="9">
         <v>1805</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="9">
         <v>2632</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="9">
         <v>1117</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="9">
         <v>2734</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C33" s="7">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="10">
         <v>44589</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="11">
         <v>2664</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="11">
         <v>919</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="11">
         <v>2056</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="11">
         <v>922</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="11">
         <v>907</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="11">
         <v>1302</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C34" s="6">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="8">
         <v>44590</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="9">
         <v>2930</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="9">
         <v>140</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="9">
         <v>1255</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="9">
         <v>2002</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="9">
         <v>1786</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="9">
         <v>1068</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C35" s="7">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="10">
         <v>44591</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="11">
         <v>355</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="11">
         <v>1549</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="11">
         <v>1204</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="11">
         <v>343</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="11">
         <v>2234</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="11">
         <v>1927</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C36" s="6">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="8">
         <v>44592</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="9">
         <v>2604</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="9">
         <v>316</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="9">
         <v>2867</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="9">
         <v>881</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="9">
         <v>1848</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="9">
         <v>2353</v>
       </c>
     </row>
@@ -1214,8 +1347,6 @@
   <mergeCells count="1">
     <mergeCell ref="C3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>